--- a/applicants.xlsx
+++ b/applicants.xlsx
@@ -49,10 +49,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,6 +668,143 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>이민준</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>신한은행 프라이빗뱅킹센터</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>영업점 PB</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>남</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>고려대학교 경영대학원</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>석사</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>신한은행 프라이빗뱅킹센터</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>PB팀</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>과장</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>KB국민은행 강남WM센터</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>WM팀</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>대리</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr"/>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>2011-07</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
+          <t>하나은행 여의도지점</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>개인영업부</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>행원</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr"/>
+      <c r="AB2" s="2" t="inlineStr"/>
+      <c r="AC2" s="2" t="inlineStr"/>
+      <c r="AD2" s="2" t="inlineStr"/>
+      <c r="AE2" s="2" t="inlineStr"/>
+      <c r="AF2" s="2" t="inlineStr"/>
+      <c r="AG2" s="2" t="inlineStr"/>
+      <c r="AH2" s="2" t="inlineStr"/>
+      <c r="AI2" s="2" t="inlineStr"/>
+      <c r="AJ2" s="2" t="inlineStr"/>
+      <c r="AK2" s="2" t="inlineStr"/>
+      <c r="AL2" s="2" t="inlineStr"/>
+      <c r="AM2" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
